--- a/inputXls/Hoomrooms.xlsx
+++ b/inputXls/Hoomrooms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E6DA0E-9FBE-4BFC-9EF7-ACE88CF7F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C4706-8A6C-4871-93BF-7B951438B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3840" windowWidth="28800" windowHeight="11295" xr2:uid="{0ACB1D75-535F-4D88-984F-294A3FACCD2E}"/>
+    <workbookView xWindow="4590" yWindow="1710" windowWidth="13710" windowHeight="13605" xr2:uid="{0ACB1D75-535F-4D88-984F-294A3FACCD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>roomId</t>
   </si>
@@ -48,12 +48,15 @@
   <si>
     <t>status</t>
   </si>
+  <si>
+    <t>duration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,9 +66,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED90763-ED58-438A-BB2A-52F8A2B13A80}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +443,367 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
